--- a/lab2/Lab 2 - Single-Stage Amplifier.xlsx
+++ b/lab2/Lab 2 - Single-Stage Amplifier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\3ej4\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7791705C-8EE7-4FAA-A840-35CEC34FD184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5889C8D7-5860-4556-BD01-9FB1AEF1075F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16515" yWindow="525" windowWidth="16380" windowHeight="15000" tabRatio="908" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="270" yWindow="390" windowWidth="19410" windowHeight="15255" tabRatio="908" firstSheet="4" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Step 1.2" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -575,7 +575,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="11" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -24477,7 +24476,7 @@
       <c r="A100" s="50">
         <v>0.91284289494290505</v>
       </c>
-      <c r="B100" s="80">
+      <c r="B100" s="79">
         <f t="shared" si="2"/>
         <v>4.51849681523634E-8</v>
       </c>
@@ -36130,7 +36129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
@@ -42194,8 +42193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F508"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H475" sqref="H475"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42256,8 +42255,8 @@
         <v>19.627438287762303</v>
       </c>
       <c r="E3" s="43">
-        <f>5655555.22514252*D3</f>
-        <v>111004061.16451645</v>
+        <f>B3/0.002*11200</f>
+        <v>107297.58249573161</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -52026,9 +52025,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A121" sqref="A121"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -61047,7 +61046,7 @@
         <f t="shared" si="4"/>
         <v>2.0160388449476277E-4</v>
       </c>
-      <c r="J6" s="79">
+      <c r="J6" s="38">
         <f t="shared" si="5"/>
         <v>6045000.0001528198</v>
       </c>
@@ -61085,7 +61084,7 @@
         <f t="shared" si="4"/>
         <v>2.0165351228632479E-4</v>
       </c>
-      <c r="J7" s="79">
+      <c r="J7" s="38">
         <f t="shared" si="5"/>
         <v>-9711791.3674121909</v>
       </c>
@@ -61123,7 +61122,7 @@
         <f t="shared" si="4"/>
         <v>2.0162262200165427E-4</v>
       </c>
-      <c r="J8" s="79">
+      <c r="J8" s="38">
         <f t="shared" si="5"/>
         <v>-3725871.4320106157</v>
       </c>
@@ -61161,7 +61160,7 @@
         <f t="shared" si="4"/>
         <v>2.0154210392542046E-4</v>
       </c>
-      <c r="J9" s="79">
+      <c r="J9" s="38">
         <f t="shared" si="5"/>
         <v>-5983708.5409835344</v>
       </c>
@@ -61199,7 +61198,7 @@
         <f t="shared" si="4"/>
         <v>2.0149196779363108E-4</v>
       </c>
-      <c r="J10" s="79">
+      <c r="J10" s="38">
         <f t="shared" si="5"/>
         <v>6045000.0000009518</v>
       </c>
@@ -61237,7 +61236,7 @@
         <f t="shared" si="4"/>
         <v>2.0154159558519435E-4</v>
       </c>
-      <c r="J11" s="79">
+      <c r="J11" s="38">
         <f t="shared" si="5"/>
         <v>2680565.071788141</v>
       </c>
@@ -61275,7 +61274,7 @@
         <f t="shared" si="4"/>
         <v>2.0165351228632479E-4</v>
       </c>
-      <c r="J12" s="79">
+      <c r="J12" s="38">
         <f t="shared" si="5"/>
         <v>-49371428.571281306</v>
       </c>
@@ -61313,7 +61312,7 @@
         <f t="shared" si="4"/>
         <v>2.0164743589743588E-4</v>
       </c>
-      <c r="J13" s="79">
+      <c r="J13" s="38">
         <f t="shared" si="5"/>
         <v>3237263.7891355008</v>
       </c>
